--- a/S2/CVP_classNotes.xlsx
+++ b/S2/CVP_classNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurmorris/ACCT3210/S2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE72AB15-5440-504A-A54A-D00474099DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE74DE5-F78E-D442-AFFF-EE14AF613D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{031223DD-A950-3143-BA78-1C831FBFACA2}"/>
   </bookViews>
